--- a/backend/hct_mis_api/apps/registration_datahub/tests/test_file/rdi_import_3_hh_missing_required_delivery_fields.xlsx
+++ b/backend/hct_mis_api/apps/registration_datahub/tests/test_file/rdi_import_3_hh_missing_required_delivery_fields.xlsx
@@ -558,13 +558,13 @@
     <t>minutes_to_school_i_f</t>
   </si>
   <si>
-    <t>card_number_atm_card_i_c</t>
-  </si>
-  <si>
-    <t>card_expiry_date_atm_card_i_c</t>
-  </si>
-  <si>
-    <t>name_of_cardholder_atm_card_i_c</t>
+    <t>card_number__atm_card_i_c</t>
+  </si>
+  <si>
+    <t>card_expiry_date__atm_card_i_c</t>
+  </si>
+  <si>
+    <t>name_of_cardholder__atm_card_i_c</t>
   </si>
   <si>
     <t>HEAD</t>
